--- a/dicionario_dados/dicionarioMovimentacoes.xlsx
+++ b/dicionario_dados/dicionarioMovimentacoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alunosatcedu-my.sharepoint.com/personal/rhyan_7423_alunosatc_edu_br/Documents/Engenharia de Computação/Banco de Dados II/Trabalho Final/Dicionários das tabelas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{7B3A1A37-D8C2-4C3E-A4E2-42D07B7A357D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{010B2BE8-B93D-49D9-954F-8EF4075F56C6}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="8_{7B3A1A37-D8C2-4C3E-A4E2-42D07B7A357D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC769BDC-2B30-4E7D-9FB7-53EC8022D7C4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A75A3C3-1CC3-42DF-908E-18684CFF6B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>Tabela</t>
   </si>
@@ -95,15 +95,6 @@
     <t>Nome do índice</t>
   </si>
   <si>
-    <t>movimentacao_id</t>
-  </si>
-  <si>
-    <t>0 - sem limite</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>sem limite</t>
   </si>
   <si>
@@ -122,38 +113,50 @@
     <t>Foreign Key da tabela vagas</t>
   </si>
   <si>
-    <t>data_entrada</t>
-  </si>
-  <si>
-    <t>data_saida</t>
-  </si>
-  <si>
-    <t>valor_pago</t>
-  </si>
-  <si>
-    <t>Valor pago no período estacionado</t>
-  </si>
-  <si>
-    <t>movimentacoes</t>
-  </si>
-  <si>
     <t>Tabela responsável por armazenar os dados das entradas e saídas dos veículos no estacionamento</t>
   </si>
   <si>
-    <t>decimal(10, 2)</t>
-  </si>
-  <si>
     <t>Data e hora que veículo acessou o estacionamento</t>
   </si>
   <si>
     <t>Data e hora que veículo deixou o estacionamento</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>entrada</t>
+  </si>
+  <si>
+    <t>saida</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>Movimentacoes</t>
+  </si>
+  <si>
+    <t>PRIMARY</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Index_vaga_id</t>
+  </si>
+  <si>
+    <t>index_veiculo_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,14 +173,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFA6A6A6"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color rgb="FFA6A6A6"/>
       <name val="Calibri"/>
@@ -278,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -298,7 +293,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -311,15 +306,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -337,6 +323,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -639,7 +629,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -715,7 +705,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="4" t="s">
@@ -732,7 +722,7 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -754,12 +744,12 @@
         <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="4" t="s">
@@ -776,62 +766,54 @@
         <v>11</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A10" s="8"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -866,34 +848,64 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
+      <c r="A13" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="9"/>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
+      <c r="A14" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="9"/>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="G14" s="11"/>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="A15" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
